--- a/Data/gpm_data.xlsx
+++ b/Data/gpm_data.xlsx
@@ -361,24 +361,24 @@
     <t>Combigan Ophthalmic Susp 5ml</t>
   </si>
   <si>
+    <t>Dextor T Ophthalmic Suspension, 5ml</t>
+  </si>
+  <si>
     <t>Dextor C 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Dextor T Ophthalmic Suspension, 5ml</t>
-  </si>
-  <si>
     <t>Fluflam 0.1% Opthalmic Suspension</t>
   </si>
   <si>
     <t>Freshtear 10ml Ophthalmic Solution</t>
   </si>
   <si>
+    <t>Levomax 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
     <t>Levomax TS 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Levomax 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
     <t>Lotrel 0.5% Opthalmic Suspension</t>
   </si>
   <si>
@@ -400,10 +400,10 @@
     <t>Relestat 5 ml</t>
   </si>
   <si>
+    <t>Romfen S 5ml Opthalmic Solution</t>
+  </si>
+  <si>
     <t>Romfen 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Romfen S 5ml Opthalmic Solution</t>
   </si>
   <si>
     <t>Visomox 5ml Ophthalmic Solution</t>
@@ -2852,37 +2852,37 @@
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>840</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1611</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2894,127 +2894,127 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.406593</v>
+        <v>0.010989</v>
       </c>
       <c r="T9">
-        <v>0.461538</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.76923</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.186813</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.868131</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.06593400000000001</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.208791</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.461538</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.76923</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1.351648</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.07692300000000001</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1.725274</v>
+        <v>0.010989</v>
       </c>
       <c r="AE9">
-        <v>1.274725</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.054945</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.120879</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1.813186</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>1.120879</v>
+        <v>0.032967</v>
       </c>
       <c r="AJ9">
-        <v>0.054945</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.560439</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.7582410000000001</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>4.857142</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.417582</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.131868</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.10989</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.373626</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>1.340659</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.373626</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>4.21978</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>0.505494</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.285714</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>0.384615</v>
+        <v>0</v>
       </c>
       <c r="AX9">
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="BA9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BF9">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BG9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BH9">
         <v>0</v>
@@ -3023,49 +3023,49 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="BM9">
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="BR9">
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BX9">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BY9">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="CB9">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="CC9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CD9">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -3106,220 +3106,220 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1377</v>
+      </c>
+      <c r="H10">
+        <v>1377</v>
+      </c>
+      <c r="I10">
+        <v>697</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>840</v>
+      </c>
+      <c r="M10">
+        <v>61</v>
+      </c>
+      <c r="N10">
+        <v>914</v>
+      </c>
+      <c r="O10">
+        <v>1611</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.406593</v>
+      </c>
+      <c r="T10">
+        <v>0.461538</v>
+      </c>
+      <c r="U10">
+        <v>0.76923</v>
+      </c>
+      <c r="V10">
+        <v>0.186813</v>
+      </c>
+      <c r="W10">
+        <v>0.868131</v>
+      </c>
+      <c r="X10">
+        <v>0.06593400000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.208791</v>
+      </c>
+      <c r="Z10">
+        <v>0.461538</v>
+      </c>
+      <c r="AA10">
+        <v>0.76923</v>
+      </c>
+      <c r="AB10">
+        <v>1.351648</v>
+      </c>
+      <c r="AC10">
+        <v>0.07692300000000001</v>
+      </c>
+      <c r="AD10">
+        <v>1.725274</v>
+      </c>
+      <c r="AE10">
+        <v>1.274725</v>
+      </c>
+      <c r="AF10">
+        <v>1.054945</v>
+      </c>
+      <c r="AG10">
+        <v>0.120879</v>
+      </c>
+      <c r="AH10">
+        <v>1.813186</v>
+      </c>
+      <c r="AI10">
+        <v>1.120879</v>
+      </c>
+      <c r="AJ10">
+        <v>0.054945</v>
+      </c>
+      <c r="AK10">
+        <v>0.560439</v>
+      </c>
+      <c r="AL10">
+        <v>0.7582410000000001</v>
+      </c>
+      <c r="AM10">
+        <v>4.857142</v>
+      </c>
+      <c r="AN10">
+        <v>0.417582</v>
+      </c>
+      <c r="AO10">
+        <v>0.131868</v>
+      </c>
+      <c r="AP10">
+        <v>0.10989</v>
+      </c>
+      <c r="AQ10">
+        <v>0.373626</v>
+      </c>
+      <c r="AR10">
+        <v>1.340659</v>
+      </c>
+      <c r="AS10">
+        <v>0.373626</v>
+      </c>
+      <c r="AT10">
+        <v>4.21978</v>
+      </c>
+      <c r="AU10">
+        <v>0.505494</v>
+      </c>
+      <c r="AV10">
+        <v>0.285714</v>
+      </c>
+      <c r="AW10">
+        <v>0.384615</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1570</v>
+      </c>
+      <c r="AZ10">
+        <v>54</v>
+      </c>
+      <c r="BA10">
+        <v>16</v>
+      </c>
+      <c r="BB10">
+        <v>77</v>
+      </c>
+      <c r="BC10">
+        <v>15</v>
+      </c>
+      <c r="BD10">
+        <v>5</v>
+      </c>
+      <c r="BE10">
+        <v>31</v>
+      </c>
+      <c r="BF10">
+        <v>63</v>
+      </c>
+      <c r="BG10">
+        <v>33</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>19</v>
+      </c>
+      <c r="BK10">
+        <v>34</v>
+      </c>
+      <c r="BL10">
+        <v>93</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>25</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>362</v>
+      </c>
+      <c r="BQ10">
         <v>136</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.010989</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0.010989</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0.032967</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
       <c r="BR10">
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BY10">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="CE10">
         <v>0</v>
@@ -3620,10 +3620,10 @@
         <v>154</v>
       </c>
       <c r="G12">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="H12">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="I12">
         <v>5460</v>
@@ -3868,37 +3868,37 @@
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="H13">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="I13">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="J13">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>894</v>
+        <v>479</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N13">
-        <v>3247</v>
+        <v>2796</v>
       </c>
       <c r="O13">
-        <v>4141</v>
+        <v>3342</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3910,196 +3910,196 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.120879</v>
+        <v>0.263736</v>
       </c>
       <c r="T13">
-        <v>0.615384</v>
+        <v>0.934065</v>
       </c>
       <c r="U13">
-        <v>1.054945</v>
+        <v>1.010989</v>
       </c>
       <c r="V13">
-        <v>0.956043</v>
+        <v>0.285714</v>
       </c>
       <c r="W13">
-        <v>0.21978</v>
+        <v>0.373626</v>
       </c>
       <c r="X13">
-        <v>0.483516</v>
+        <v>0.32967</v>
       </c>
       <c r="Y13">
-        <v>0.494505</v>
+        <v>0.846153</v>
       </c>
       <c r="Z13">
         <v>0.120879</v>
       </c>
       <c r="AA13">
-        <v>0.76923</v>
+        <v>1.54945</v>
       </c>
       <c r="AB13">
         <v>0.043956</v>
       </c>
       <c r="AC13">
-        <v>0.175824</v>
+        <v>0.186813</v>
       </c>
       <c r="AD13">
-        <v>0.516483</v>
+        <v>1.186813</v>
       </c>
       <c r="AE13">
-        <v>0.967032</v>
+        <v>1.153846</v>
       </c>
       <c r="AF13">
-        <v>0.010989</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>0.681318</v>
+        <v>0.461538</v>
       </c>
       <c r="AH13">
-        <v>2.868131</v>
+        <v>0.494505</v>
       </c>
       <c r="AI13">
-        <v>0.296703</v>
+        <v>0.428571</v>
       </c>
       <c r="AJ13">
-        <v>0.032967</v>
+        <v>0.131868</v>
       </c>
       <c r="AK13">
-        <v>0.802197</v>
+        <v>1.065934</v>
       </c>
       <c r="AL13">
-        <v>0.263736</v>
+        <v>0.307692</v>
       </c>
       <c r="AM13">
-        <v>1.164835</v>
+        <v>0.483516</v>
       </c>
       <c r="AN13">
-        <v>0.362637</v>
+        <v>1.494505</v>
       </c>
       <c r="AO13">
-        <v>0.153846</v>
+        <v>0.208791</v>
       </c>
       <c r="AP13">
-        <v>0.021978</v>
+        <v>0.043956</v>
       </c>
       <c r="AQ13">
-        <v>5.43956</v>
+        <v>0.615384</v>
       </c>
       <c r="AR13">
-        <v>1.120879</v>
+        <v>0.340659</v>
       </c>
       <c r="AS13">
-        <v>0.142857</v>
+        <v>0.120879</v>
       </c>
       <c r="AT13">
-        <v>0.560439</v>
+        <v>0.10989</v>
       </c>
       <c r="AU13">
-        <v>0.054945</v>
+        <v>0.208791</v>
       </c>
       <c r="AV13">
-        <v>0.07692300000000001</v>
+        <v>0.494505</v>
       </c>
       <c r="AW13">
-        <v>8.252746999999999</v>
+        <v>0.164835</v>
       </c>
       <c r="AX13">
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>4011</v>
+        <v>3255</v>
       </c>
       <c r="AZ13">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="BA13">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="BB13">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC13">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="BD13">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="BE13">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="BF13">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG13">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BH13">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="BI13">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="BJ13">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="BK13">
+        <v>180</v>
+      </c>
+      <c r="BL13">
+        <v>247</v>
+      </c>
+      <c r="BM13">
+        <v>119</v>
+      </c>
+      <c r="BN13">
+        <v>70</v>
+      </c>
+      <c r="BO13">
+        <v>56</v>
+      </c>
+      <c r="BP13">
+        <v>98</v>
+      </c>
+      <c r="BQ13">
+        <v>145</v>
+      </c>
+      <c r="BR13">
+        <v>74</v>
+      </c>
+      <c r="BS13">
+        <v>238</v>
+      </c>
+      <c r="BT13">
+        <v>108</v>
+      </c>
+      <c r="BU13">
+        <v>19</v>
+      </c>
+      <c r="BV13">
+        <v>87</v>
+      </c>
+      <c r="BW13">
+        <v>126</v>
+      </c>
+      <c r="BX13">
+        <v>76</v>
+      </c>
+      <c r="BY13">
         <v>69</v>
       </c>
-      <c r="BL13">
-        <v>195</v>
-      </c>
-      <c r="BM13">
-        <v>135</v>
-      </c>
-      <c r="BN13">
-        <v>144</v>
-      </c>
-      <c r="BO13">
-        <v>73</v>
-      </c>
-      <c r="BP13">
-        <v>141</v>
-      </c>
-      <c r="BQ13">
-        <v>232</v>
-      </c>
-      <c r="BR13">
-        <v>98</v>
-      </c>
-      <c r="BS13">
-        <v>217</v>
-      </c>
-      <c r="BT13">
-        <v>34</v>
-      </c>
-      <c r="BU13">
-        <v>158</v>
-      </c>
-      <c r="BV13">
-        <v>130</v>
-      </c>
-      <c r="BW13">
-        <v>73</v>
-      </c>
-      <c r="BX13">
-        <v>143</v>
-      </c>
-      <c r="BY13">
-        <v>89</v>
-      </c>
       <c r="BZ13">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="CA13">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="CB13">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="CC13">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="CD13">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -4122,37 +4122,37 @@
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="H14">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="I14">
-        <v>546</v>
+        <v>894</v>
       </c>
       <c r="J14">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="L14">
-        <v>479</v>
+        <v>894</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N14">
-        <v>2796</v>
+        <v>3247</v>
       </c>
       <c r="O14">
-        <v>3342</v>
+        <v>4141</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4164,196 +4164,196 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.263736</v>
+        <v>0.120879</v>
       </c>
       <c r="T14">
-        <v>0.934065</v>
+        <v>0.615384</v>
       </c>
       <c r="U14">
-        <v>1.010989</v>
+        <v>1.054945</v>
       </c>
       <c r="V14">
-        <v>0.285714</v>
+        <v>0.956043</v>
       </c>
       <c r="W14">
-        <v>0.373626</v>
+        <v>0.21978</v>
       </c>
       <c r="X14">
-        <v>0.32967</v>
+        <v>0.483516</v>
       </c>
       <c r="Y14">
-        <v>0.846153</v>
+        <v>0.494505</v>
       </c>
       <c r="Z14">
         <v>0.120879</v>
       </c>
       <c r="AA14">
-        <v>1.54945</v>
+        <v>0.76923</v>
       </c>
       <c r="AB14">
         <v>0.043956</v>
       </c>
       <c r="AC14">
-        <v>0.186813</v>
+        <v>0.175824</v>
       </c>
       <c r="AD14">
-        <v>1.186813</v>
+        <v>0.516483</v>
       </c>
       <c r="AE14">
-        <v>1.153846</v>
+        <v>0.967032</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.010989</v>
       </c>
       <c r="AG14">
-        <v>0.461538</v>
+        <v>0.681318</v>
       </c>
       <c r="AH14">
-        <v>0.494505</v>
+        <v>2.868131</v>
       </c>
       <c r="AI14">
-        <v>0.428571</v>
+        <v>0.296703</v>
       </c>
       <c r="AJ14">
-        <v>0.131868</v>
+        <v>0.032967</v>
       </c>
       <c r="AK14">
-        <v>1.065934</v>
+        <v>0.802197</v>
       </c>
       <c r="AL14">
-        <v>0.307692</v>
+        <v>0.263736</v>
       </c>
       <c r="AM14">
-        <v>0.483516</v>
+        <v>1.164835</v>
       </c>
       <c r="AN14">
-        <v>1.494505</v>
+        <v>0.362637</v>
       </c>
       <c r="AO14">
-        <v>0.208791</v>
+        <v>0.153846</v>
       </c>
       <c r="AP14">
-        <v>0.043956</v>
+        <v>0.021978</v>
       </c>
       <c r="AQ14">
-        <v>0.615384</v>
+        <v>5.43956</v>
       </c>
       <c r="AR14">
-        <v>0.340659</v>
+        <v>1.120879</v>
       </c>
       <c r="AS14">
-        <v>0.120879</v>
+        <v>0.142857</v>
       </c>
       <c r="AT14">
-        <v>0.10989</v>
+        <v>0.560439</v>
       </c>
       <c r="AU14">
-        <v>0.208791</v>
+        <v>0.054945</v>
       </c>
       <c r="AV14">
-        <v>0.494505</v>
+        <v>0.07692300000000001</v>
       </c>
       <c r="AW14">
-        <v>0.164835</v>
+        <v>8.252746999999999</v>
       </c>
       <c r="AX14">
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>3255</v>
+        <v>4011</v>
       </c>
       <c r="AZ14">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="BA14">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="BB14">
+        <v>72</v>
+      </c>
+      <c r="BC14">
+        <v>131</v>
+      </c>
+      <c r="BD14">
+        <v>78</v>
+      </c>
+      <c r="BE14">
+        <v>214</v>
+      </c>
+      <c r="BF14">
+        <v>99</v>
+      </c>
+      <c r="BG14">
+        <v>121</v>
+      </c>
+      <c r="BH14">
+        <v>110</v>
+      </c>
+      <c r="BI14">
+        <v>167</v>
+      </c>
+      <c r="BJ14">
+        <v>140</v>
+      </c>
+      <c r="BK14">
+        <v>69</v>
+      </c>
+      <c r="BL14">
+        <v>195</v>
+      </c>
+      <c r="BM14">
+        <v>135</v>
+      </c>
+      <c r="BN14">
+        <v>144</v>
+      </c>
+      <c r="BO14">
         <v>73</v>
       </c>
-      <c r="BC14">
-        <v>71</v>
-      </c>
-      <c r="BD14">
-        <v>110</v>
-      </c>
-      <c r="BE14">
-        <v>40</v>
-      </c>
-      <c r="BF14">
+      <c r="BP14">
+        <v>141</v>
+      </c>
+      <c r="BQ14">
+        <v>232</v>
+      </c>
+      <c r="BR14">
         <v>98</v>
       </c>
-      <c r="BG14">
-        <v>123</v>
-      </c>
-      <c r="BH14">
-        <v>5</v>
-      </c>
-      <c r="BI14">
+      <c r="BS14">
+        <v>217</v>
+      </c>
+      <c r="BT14">
+        <v>34</v>
+      </c>
+      <c r="BU14">
+        <v>158</v>
+      </c>
+      <c r="BV14">
+        <v>130</v>
+      </c>
+      <c r="BW14">
+        <v>73</v>
+      </c>
+      <c r="BX14">
+        <v>143</v>
+      </c>
+      <c r="BY14">
+        <v>89</v>
+      </c>
+      <c r="BZ14">
         <v>192</v>
       </c>
-      <c r="BJ14">
-        <v>152</v>
-      </c>
-      <c r="BK14">
-        <v>180</v>
-      </c>
-      <c r="BL14">
-        <v>247</v>
-      </c>
-      <c r="BM14">
-        <v>119</v>
-      </c>
-      <c r="BN14">
-        <v>70</v>
-      </c>
-      <c r="BO14">
-        <v>56</v>
-      </c>
-      <c r="BP14">
-        <v>98</v>
-      </c>
-      <c r="BQ14">
-        <v>145</v>
-      </c>
-      <c r="BR14">
-        <v>74</v>
-      </c>
-      <c r="BS14">
-        <v>238</v>
-      </c>
-      <c r="BT14">
-        <v>108</v>
-      </c>
-      <c r="BU14">
-        <v>19</v>
-      </c>
-      <c r="BV14">
-        <v>87</v>
-      </c>
-      <c r="BW14">
-        <v>126</v>
-      </c>
-      <c r="BX14">
-        <v>76</v>
-      </c>
-      <c r="BY14">
-        <v>69</v>
-      </c>
-      <c r="BZ14">
-        <v>42</v>
-      </c>
       <c r="CA14">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="CB14">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="CC14">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="CD14">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="CE14">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         <v>23</v>
       </c>
       <c r="G19">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H19">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="I19">
         <v>866</v>
@@ -6154,238 +6154,238 @@
         <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>1375</v>
+      </c>
+      <c r="H22">
+        <v>1375</v>
+      </c>
+      <c r="I22">
+        <v>1477</v>
+      </c>
+      <c r="J22">
+        <v>107</v>
+      </c>
+      <c r="K22">
+        <v>107</v>
+      </c>
+      <c r="L22">
+        <v>1089</v>
+      </c>
+      <c r="M22">
+        <v>79</v>
+      </c>
+      <c r="N22">
+        <v>5393</v>
+      </c>
+      <c r="O22">
+        <v>6870</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.07692300000000001</v>
+      </c>
+      <c r="T22">
+        <v>0.450549</v>
+      </c>
+      <c r="U22">
+        <v>1.208791</v>
+      </c>
+      <c r="V22">
+        <v>0.164835</v>
+      </c>
+      <c r="W22">
+        <v>0.494505</v>
+      </c>
+      <c r="X22">
+        <v>1.956043</v>
+      </c>
+      <c r="Y22">
+        <v>0.087912</v>
+      </c>
+      <c r="Z22">
+        <v>0.241758</v>
+      </c>
+      <c r="AA22">
+        <v>0.538461</v>
+      </c>
+      <c r="AB22">
+        <v>0.32967</v>
+      </c>
+      <c r="AC22">
+        <v>0.208791</v>
+      </c>
+      <c r="AD22">
+        <v>4.296703</v>
+      </c>
+      <c r="AE22">
+        <v>3.76923</v>
+      </c>
+      <c r="AF22">
+        <v>0.06593400000000001</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1.483516</v>
+      </c>
+      <c r="AI22">
+        <v>6.076923</v>
+      </c>
+      <c r="AJ22">
+        <v>3.912087</v>
+      </c>
+      <c r="AK22">
+        <v>0.901098</v>
+      </c>
+      <c r="AL22">
+        <v>1.010989</v>
+      </c>
+      <c r="AM22">
+        <v>2.043956</v>
+      </c>
+      <c r="AN22">
+        <v>0.21978</v>
+      </c>
+      <c r="AO22">
+        <v>0.780219</v>
+      </c>
+      <c r="AP22">
+        <v>2.098901</v>
+      </c>
+      <c r="AQ22">
+        <v>0.06593400000000001</v>
+      </c>
+      <c r="AR22">
+        <v>0.285714</v>
+      </c>
+      <c r="AS22">
+        <v>0.65934</v>
+      </c>
+      <c r="AT22">
+        <v>0.384615</v>
+      </c>
+      <c r="AU22">
+        <v>0.472527</v>
+      </c>
+      <c r="AV22">
+        <v>0.010989</v>
+      </c>
+      <c r="AW22">
+        <v>0.846153</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>6726</v>
+      </c>
+      <c r="AZ22">
+        <v>198</v>
+      </c>
+      <c r="BA22">
+        <v>113</v>
+      </c>
+      <c r="BB22">
+        <v>92</v>
+      </c>
+      <c r="BC22">
+        <v>210</v>
+      </c>
+      <c r="BD22">
+        <v>352</v>
+      </c>
+      <c r="BE22">
+        <v>137</v>
+      </c>
+      <c r="BF22">
+        <v>167</v>
+      </c>
+      <c r="BG22">
+        <v>221</v>
+      </c>
+      <c r="BH22">
+        <v>139</v>
+      </c>
+      <c r="BI22">
+        <v>165</v>
+      </c>
+      <c r="BJ22">
+        <v>240</v>
+      </c>
+      <c r="BK22">
+        <v>148</v>
+      </c>
+      <c r="BL22">
+        <v>281</v>
+      </c>
+      <c r="BM22">
+        <v>210</v>
+      </c>
+      <c r="BN22">
+        <v>205</v>
+      </c>
+      <c r="BO22">
+        <v>55</v>
+      </c>
+      <c r="BP22">
+        <v>1361</v>
+      </c>
+      <c r="BQ22">
+        <v>43</v>
+      </c>
+      <c r="BR22">
+        <v>138</v>
+      </c>
+      <c r="BS22">
+        <v>792</v>
+      </c>
+      <c r="BT22">
         <v>21</v>
       </c>
-      <c r="G22">
-        <v>1512</v>
-      </c>
-      <c r="H22">
-        <v>1512</v>
-      </c>
-      <c r="I22">
-        <v>558</v>
-      </c>
-      <c r="J22">
-        <v>36</v>
-      </c>
-      <c r="K22">
-        <v>36</v>
-      </c>
-      <c r="L22">
-        <v>666</v>
-      </c>
-      <c r="M22">
-        <v>44</v>
-      </c>
-      <c r="N22">
-        <v>6835</v>
-      </c>
-      <c r="O22">
-        <v>7393</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0.10989</v>
-      </c>
-      <c r="T22">
-        <v>2.516483</v>
-      </c>
-      <c r="U22">
-        <v>0.65934</v>
-      </c>
-      <c r="V22">
-        <v>0.648351</v>
-      </c>
-      <c r="W22">
-        <v>0.142857</v>
-      </c>
-      <c r="X22">
-        <v>1.010989</v>
-      </c>
-      <c r="Y22">
-        <v>0.516483</v>
-      </c>
-      <c r="Z22">
-        <v>0.428571</v>
-      </c>
-      <c r="AA22">
-        <v>0.54945</v>
-      </c>
-      <c r="AB22">
-        <v>0.285714</v>
-      </c>
-      <c r="AC22">
-        <v>1.76923</v>
-      </c>
-      <c r="AD22">
-        <v>0.934065</v>
-      </c>
-      <c r="AE22">
-        <v>3.362637</v>
-      </c>
-      <c r="AF22">
-        <v>0.307692</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0.813186</v>
-      </c>
-      <c r="AI22">
-        <v>0.76923</v>
-      </c>
-      <c r="AJ22">
-        <v>1.131868</v>
-      </c>
-      <c r="AK22">
-        <v>0.835164</v>
-      </c>
-      <c r="AL22">
-        <v>0.824175</v>
-      </c>
-      <c r="AM22">
-        <v>0.153846</v>
-      </c>
-      <c r="AN22">
-        <v>0.252747</v>
-      </c>
-      <c r="AO22">
-        <v>0.285714</v>
-      </c>
-      <c r="AP22">
-        <v>0.120879</v>
-      </c>
-      <c r="AQ22">
-        <v>0.087912</v>
-      </c>
-      <c r="AR22">
-        <v>0.373626</v>
-      </c>
-      <c r="AS22">
-        <v>1.175824</v>
-      </c>
-      <c r="AT22">
-        <v>0.395604</v>
-      </c>
-      <c r="AU22">
-        <v>0.461538</v>
-      </c>
-      <c r="AV22">
-        <v>0.07692300000000001</v>
-      </c>
-      <c r="AW22">
-        <v>0.494505</v>
-      </c>
-      <c r="AX22">
-        <v>96</v>
-      </c>
-      <c r="AY22">
-        <v>7169</v>
-      </c>
-      <c r="AZ22">
-        <v>274</v>
-      </c>
-      <c r="BA22">
-        <v>260</v>
-      </c>
-      <c r="BB22">
-        <v>158</v>
-      </c>
-      <c r="BC22">
-        <v>225</v>
-      </c>
-      <c r="BD22">
-        <v>341</v>
-      </c>
-      <c r="BE22">
-        <v>189</v>
-      </c>
-      <c r="BF22">
-        <v>108</v>
-      </c>
-      <c r="BG22">
-        <v>261</v>
-      </c>
-      <c r="BH22">
-        <v>195</v>
-      </c>
-      <c r="BI22">
-        <v>235</v>
-      </c>
-      <c r="BJ22">
-        <v>155</v>
-      </c>
-      <c r="BK22">
-        <v>234</v>
-      </c>
-      <c r="BL22">
-        <v>290</v>
-      </c>
-      <c r="BM22">
-        <v>232</v>
-      </c>
-      <c r="BN22">
-        <v>274</v>
-      </c>
-      <c r="BO22">
-        <v>140</v>
-      </c>
-      <c r="BP22">
-        <v>523</v>
-      </c>
-      <c r="BQ22">
-        <v>267</v>
-      </c>
-      <c r="BR22">
+      <c r="BU22">
+        <v>223</v>
+      </c>
+      <c r="BV22">
+        <v>144</v>
+      </c>
+      <c r="BW22">
+        <v>97</v>
+      </c>
+      <c r="BX22">
         <v>171</v>
       </c>
-      <c r="BS22">
-        <v>440</v>
-      </c>
-      <c r="BT22">
-        <v>213</v>
-      </c>
-      <c r="BU22">
-        <v>214</v>
-      </c>
-      <c r="BV22">
-        <v>224</v>
-      </c>
-      <c r="BW22">
-        <v>269</v>
-      </c>
-      <c r="BX22">
-        <v>266</v>
-      </c>
       <c r="BY22">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="BZ22">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="CA22">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="CB22">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="CC22">
+        <v>170</v>
+      </c>
+      <c r="CD22">
         <v>176</v>
-      </c>
-      <c r="CD22">
-        <v>296</v>
       </c>
       <c r="CE22">
         <v>0</v>
@@ -6408,37 +6408,37 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <v>1375</v>
+        <v>1512</v>
       </c>
       <c r="H23">
-        <v>1375</v>
+        <v>1512</v>
       </c>
       <c r="I23">
-        <v>1477</v>
+        <v>558</v>
       </c>
       <c r="J23">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="L23">
-        <v>1089</v>
+        <v>666</v>
       </c>
       <c r="M23">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="N23">
-        <v>5393</v>
+        <v>6835</v>
       </c>
       <c r="O23">
-        <v>6870</v>
+        <v>7393</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -6450,196 +6450,196 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0.10989</v>
+      </c>
+      <c r="T23">
+        <v>2.516483</v>
+      </c>
+      <c r="U23">
+        <v>0.65934</v>
+      </c>
+      <c r="V23">
+        <v>0.648351</v>
+      </c>
+      <c r="W23">
+        <v>0.142857</v>
+      </c>
+      <c r="X23">
+        <v>1.010989</v>
+      </c>
+      <c r="Y23">
+        <v>0.516483</v>
+      </c>
+      <c r="Z23">
+        <v>0.428571</v>
+      </c>
+      <c r="AA23">
+        <v>0.54945</v>
+      </c>
+      <c r="AB23">
+        <v>0.285714</v>
+      </c>
+      <c r="AC23">
+        <v>1.76923</v>
+      </c>
+      <c r="AD23">
+        <v>0.934065</v>
+      </c>
+      <c r="AE23">
+        <v>3.362637</v>
+      </c>
+      <c r="AF23">
+        <v>0.307692</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0.813186</v>
+      </c>
+      <c r="AI23">
+        <v>0.76923</v>
+      </c>
+      <c r="AJ23">
+        <v>1.131868</v>
+      </c>
+      <c r="AK23">
+        <v>0.835164</v>
+      </c>
+      <c r="AL23">
+        <v>0.824175</v>
+      </c>
+      <c r="AM23">
+        <v>0.153846</v>
+      </c>
+      <c r="AN23">
+        <v>0.252747</v>
+      </c>
+      <c r="AO23">
+        <v>0.285714</v>
+      </c>
+      <c r="AP23">
+        <v>0.120879</v>
+      </c>
+      <c r="AQ23">
+        <v>0.087912</v>
+      </c>
+      <c r="AR23">
+        <v>0.373626</v>
+      </c>
+      <c r="AS23">
+        <v>1.175824</v>
+      </c>
+      <c r="AT23">
+        <v>0.395604</v>
+      </c>
+      <c r="AU23">
+        <v>0.461538</v>
+      </c>
+      <c r="AV23">
         <v>0.07692300000000001</v>
       </c>
-      <c r="T23">
-        <v>0.450549</v>
-      </c>
-      <c r="U23">
-        <v>1.208791</v>
-      </c>
-      <c r="V23">
-        <v>0.164835</v>
-      </c>
-      <c r="W23">
+      <c r="AW23">
         <v>0.494505</v>
       </c>
-      <c r="X23">
-        <v>1.956043</v>
-      </c>
-      <c r="Y23">
-        <v>0.087912</v>
-      </c>
-      <c r="Z23">
-        <v>0.241758</v>
-      </c>
-      <c r="AA23">
-        <v>0.538461</v>
-      </c>
-      <c r="AB23">
-        <v>0.32967</v>
-      </c>
-      <c r="AC23">
-        <v>0.208791</v>
-      </c>
-      <c r="AD23">
-        <v>4.296703</v>
-      </c>
-      <c r="AE23">
-        <v>3.76923</v>
-      </c>
-      <c r="AF23">
-        <v>0.06593400000000001</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>1.483516</v>
-      </c>
-      <c r="AI23">
-        <v>6.076923</v>
-      </c>
-      <c r="AJ23">
-        <v>3.912087</v>
-      </c>
-      <c r="AK23">
-        <v>0.901098</v>
-      </c>
-      <c r="AL23">
-        <v>1.010989</v>
-      </c>
-      <c r="AM23">
-        <v>2.043956</v>
-      </c>
-      <c r="AN23">
-        <v>0.21978</v>
-      </c>
-      <c r="AO23">
-        <v>0.780219</v>
-      </c>
-      <c r="AP23">
-        <v>2.098901</v>
-      </c>
-      <c r="AQ23">
-        <v>0.06593400000000001</v>
-      </c>
-      <c r="AR23">
-        <v>0.285714</v>
-      </c>
-      <c r="AS23">
-        <v>0.65934</v>
-      </c>
-      <c r="AT23">
-        <v>0.384615</v>
-      </c>
-      <c r="AU23">
-        <v>0.472527</v>
-      </c>
-      <c r="AV23">
-        <v>0.010989</v>
-      </c>
-      <c r="AW23">
-        <v>0.846153</v>
-      </c>
       <c r="AX23">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AY23">
-        <v>6726</v>
+        <v>7169</v>
       </c>
       <c r="AZ23">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="BA23">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="BB23">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="BC23">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="BD23">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="BE23">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="BF23">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="BG23">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="BH23">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="BI23">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="BJ23">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="BK23">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="BL23">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="BM23">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="BN23">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="BO23">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="BP23">
-        <v>1361</v>
+        <v>523</v>
       </c>
       <c r="BQ23">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="BR23">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="BS23">
-        <v>792</v>
+        <v>440</v>
       </c>
       <c r="BT23">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="BU23">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="BV23">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="BW23">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="BX23">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="BY23">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="BZ23">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="CA23">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="CB23">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="CC23">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="CD23">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="CE23">
         <v>0</v>
@@ -6668,10 +6668,10 @@
         <v>151</v>
       </c>
       <c r="G24">
-        <v>6306</v>
+        <v>6305</v>
       </c>
       <c r="H24">
-        <v>6306</v>
+        <v>6305</v>
       </c>
       <c r="I24">
         <v>5256</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4800</v>
+        <v>960</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>36</v>
       </c>
       <c r="G28">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H28">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I28">
         <v>1277</v>

--- a/Data/gpm_data.xlsx
+++ b/Data/gpm_data.xlsx
@@ -3620,10 +3620,10 @@
         <v>154</v>
       </c>
       <c r="G12">
-        <v>7059</v>
+        <v>7060</v>
       </c>
       <c r="H12">
-        <v>7059</v>
+        <v>7060</v>
       </c>
       <c r="I12">
         <v>5460</v>
@@ -4128,10 +4128,10 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H14">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I14">
         <v>894</v>
@@ -6668,10 +6668,10 @@
         <v>151</v>
       </c>
       <c r="G24">
-        <v>6305</v>
+        <v>6306</v>
       </c>
       <c r="H24">
-        <v>6305</v>
+        <v>6306</v>
       </c>
       <c r="I24">
         <v>5256</v>
@@ -7684,10 +7684,10 @@
         <v>36</v>
       </c>
       <c r="G28">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H28">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I28">
         <v>1277</v>
